--- a/build/Sample.xlsx
+++ b/build/Sample.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamoto/Documents/Repos/golang/generateTables/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14EF1C-3F91-F344-A38D-9C5EF9BD58EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012ABF70-7F67-A043-A2D3-668B0981276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-540" yWindow="500" windowWidth="28060" windowHeight="17500" activeTab="3" xr2:uid="{5AFB18EF-3D68-834C-8DD2-1F3014CEF5A1}"/>
+    <workbookView xWindow="15760" yWindow="500" windowWidth="22640" windowHeight="20540" activeTab="1" xr2:uid="{5AFB18EF-3D68-834C-8DD2-1F3014CEF5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="#SAMPLE" sheetId="8" r:id="rId1"/>
-    <sheet name="hoge" sheetId="5" r:id="rId2"/>
-    <sheet name="fuga" sheetId="6" r:id="rId3"/>
-    <sheet name="顧客マスタ" sheetId="9" r:id="rId4"/>
+    <sheet name="顧客マスタ" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">顧客マスタ!$A$1:$BB$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">顧客マスタ!$A:$BE</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
   <si>
     <t>False</t>
     <phoneticPr fontId="1"/>
@@ -71,13 +69,6 @@
     <t>名称</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">メイショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケイサン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,67 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数字</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">スウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>西暦</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">セイレキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時刻</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジコク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ツウジョウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ツウジョウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒヅケ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムスタンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>集計</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">シュウケイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,13 +296,6 @@
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>集計</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">シュウケイ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -433,62 +356,187 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数字</t>
+    <t>文字数</t>
+  </si>
+  <si>
+    <t>Get( UUID )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客マスタ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コキャク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z_作成TS</t>
+  </si>
+  <si>
+    <t>z_作成者</t>
+  </si>
+  <si>
+    <t>z_修正TS</t>
+  </si>
+  <si>
+    <t>z_修正者</t>
+  </si>
+  <si>
+    <t>z_削除フラグ</t>
+  </si>
+  <si>
+    <t>z_01</t>
+  </si>
+  <si>
+    <t>__PK_ID</t>
+  </si>
+  <si>
+    <t>//----------</t>
+  </si>
+  <si>
+    <t>数字のみ</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>固定値</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Always 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0: False 1: True</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付のみ</t>
+  </si>
+  <si>
+    <t>OnWindowTransaction</t>
+  </si>
+  <si>
+    <t>数字型</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">スウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付型</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻型</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字型</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">スウジ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定値</t>
+    <t>通常タイプ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツウジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常タイプ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ツウジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算タイプ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計タイプ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュウケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計タイプ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シュウケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成TS</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正TS</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正者</t>
     <rPh sb="0" eb="3">
-      <t xml:space="preserve">コテイチ </t>
+      <t xml:space="preserve">シュウセイシャ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字数</t>
-  </si>
-  <si>
-    <t>Get( UUID )</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hoge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fuga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顧客マスタ</t>
+    <t>変更禁止</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">コキャク </t>
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キンシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値変更</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ヘンコウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -524,6 +572,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -674,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +801,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,9 +1125,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BE39"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.42578125" defaultRowHeight="14" customHeight="1"/>
   <cols>
@@ -1075,9 +1138,9 @@
     <col min="31" max="16384" width="2.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="14" customHeight="1">
+    <row r="1" spans="1:57" ht="14" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1089,7 +1152,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="8"/>
@@ -1108,7 +1171,7 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
       <c r="AB1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -1119,13 +1182,13 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
-      <c r="AL1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="3"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
@@ -1137,11 +1200,14 @@
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
-      <c r="BB1" s="5"/>
-    </row>
-    <row r="2" spans="1:54" ht="14" customHeight="1">
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="5"/>
+    </row>
+    <row r="2" spans="1:57" ht="14" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1153,7 +1219,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L2" s="23"/>
       <c r="M2" s="4"/>
@@ -1172,7 +1238,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -1183,13 +1249,13 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="3"/>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
@@ -1201,11 +1267,14 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
-      <c r="BB2" s="5"/>
-    </row>
-    <row r="3" spans="1:54" ht="14" customHeight="1">
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="5"/>
+    </row>
+    <row r="3" spans="1:57" ht="14" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1217,7 +1286,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3"/>
       <c r="M3" s="13"/>
@@ -1236,7 +1305,7 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -1247,10 +1316,10 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="3"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
@@ -1263,11 +1332,14 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
-      <c r="BB3" s="5"/>
-    </row>
-    <row r="4" spans="1:54" ht="14" customHeight="1">
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="5"/>
+    </row>
+    <row r="4" spans="1:57" ht="14" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1321,15 +1393,18 @@
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-    </row>
-    <row r="5" spans="1:54" ht="14" customHeight="1">
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="9"/>
+    </row>
+    <row r="5" spans="1:57" ht="14" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB5" s="11"/>
-    </row>
-    <row r="6" spans="1:54" ht="14" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="BE5" s="11"/>
+    </row>
+    <row r="6" spans="1:57" ht="14" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1383,16 +1458,19 @@
       <c r="AY6" s="13"/>
       <c r="AZ6" s="13"/>
       <c r="BA6" s="13"/>
-      <c r="BB6" s="14"/>
-    </row>
-    <row r="8" spans="1:54" ht="14" customHeight="1">
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="14"/>
+    </row>
+    <row r="8" spans="1:57" ht="14" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1405,7 +1483,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="16"/>
       <c r="O8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
@@ -1425,37 +1503,40 @@
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
+      <c r="AO8" s="16"/>
       <c r="AP8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="17"/>
       <c r="AZ8" s="17"/>
       <c r="BA8" s="17"/>
-      <c r="BB8" s="16"/>
-    </row>
-    <row r="9" spans="1:54" ht="14" customHeight="1">
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="16"/>
+    </row>
+    <row r="9" spans="1:57" ht="14" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
@@ -1472,7 +1553,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
       <c r="L9" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="19"/>
@@ -1482,27 +1563,27 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="19"/>
       <c r="U9" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V9" s="20"/>
       <c r="W9" s="19"/>
       <c r="X9" s="18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
       <c r="AD9" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -1512,52 +1593,57 @@
       <c r="AH9" s="20"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AK9" s="20"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="18"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
+      <c r="AO9" s="19"/>
       <c r="AP9" s="18"/>
       <c r="AQ9" s="20"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="18"/>
       <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
+      <c r="AU9" s="19"/>
       <c r="AV9" s="20"/>
       <c r="AW9" s="20"/>
       <c r="AX9" s="20"/>
       <c r="AY9" s="20"/>
       <c r="AZ9" s="20"/>
       <c r="BA9" s="20"/>
-      <c r="BB9" s="19"/>
-    </row>
-    <row r="10" spans="1:54" ht="14" customHeight="1">
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="19"/>
+    </row>
+    <row r="10" spans="1:57" ht="14" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="4" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
@@ -1572,7 +1658,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="5"/>
@@ -1587,63 +1673,66 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK10" s="4"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="4" t="s">
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="3" t="s">
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
-      <c r="BB10" s="5"/>
-    </row>
-    <row r="11" spans="1:54" ht="14" customHeight="1">
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="5"/>
+    </row>
+    <row r="11" spans="1:57" ht="14" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
       <c r="L11" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
@@ -1671,39 +1760,42 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="4"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="4" t="s">
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="4" t="s">
-        <v>30</v>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
-      <c r="BB11" s="5"/>
-    </row>
-    <row r="12" spans="1:54" ht="14" customHeight="1">
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="5"/>
+    </row>
+    <row r="12" spans="1:57" ht="14" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -1713,17 +1805,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
@@ -1751,39 +1843,42 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="4"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="4" t="s">
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="3" t="s">
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
-      <c r="BB12" s="5"/>
-    </row>
-    <row r="13" spans="1:54" ht="14" customHeight="1">
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="5"/>
+    </row>
+    <row r="13" spans="1:57" ht="14" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1793,12 +1888,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1825,27 +1920,30 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="4"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="3"/>
       <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="3"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="3"/>
       <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
+      <c r="AU13" s="5"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
-      <c r="BB13" s="5"/>
-    </row>
-    <row r="14" spans="1:54" ht="14" customHeight="1">
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="5"/>
+    </row>
+    <row r="14" spans="1:57" ht="14" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -1855,12 +1953,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1887,27 +1985,30 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="3"/>
       <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="3"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="3"/>
       <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
+      <c r="AU14" s="5"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
-      <c r="BB14" s="5"/>
-    </row>
-    <row r="15" spans="1:54" ht="14" customHeight="1">
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="5"/>
+    </row>
+    <row r="15" spans="1:57" ht="14" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1917,12 +2018,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1949,27 +2050,30 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="3"/>
       <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="3"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="3"/>
       <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
+      <c r="AU15" s="5"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
-      <c r="BB15" s="5"/>
-    </row>
-    <row r="16" spans="1:54" ht="14" customHeight="1">
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="5"/>
+    </row>
+    <row r="16" spans="1:57" ht="14" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1979,12 +2083,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2011,27 +2115,30 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="3"/>
       <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="3"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="3"/>
       <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
+      <c r="AU16" s="5"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
-      <c r="BB16" s="5"/>
-    </row>
-    <row r="17" spans="1:54" ht="14" customHeight="1">
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="5"/>
+    </row>
+    <row r="17" spans="1:57" ht="14" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -2041,12 +2148,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2073,27 +2180,30 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="4"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="3"/>
       <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="3"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="3"/>
       <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
+      <c r="AU17" s="5"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4"/>
-      <c r="BB17" s="5"/>
-    </row>
-    <row r="18" spans="1:54" ht="14" customHeight="1">
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="5"/>
+    </row>
+    <row r="18" spans="1:57" ht="14" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -2103,12 +2213,12 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
       <c r="L18" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2135,27 +2245,30 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="3"/>
       <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="3"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="3"/>
       <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
+      <c r="AU18" s="5"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
-      <c r="BB18" s="5"/>
-    </row>
-    <row r="19" spans="1:54" ht="14" customHeight="1">
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="5"/>
+    </row>
+    <row r="19" spans="1:57" ht="14" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -2165,12 +2278,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
       <c r="L19" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2197,27 +2310,30 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="4"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="3"/>
       <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="3"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="3"/>
       <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
+      <c r="AU19" s="5"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
-      <c r="BB19" s="5"/>
-    </row>
-    <row r="20" spans="1:54" ht="14" customHeight="1">
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="5"/>
+    </row>
+    <row r="20" spans="1:57" ht="14" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -2227,12 +2343,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
       <c r="L20" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2259,27 +2375,30 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="4"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="3"/>
       <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="3"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="3"/>
       <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
+      <c r="AU20" s="5"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4"/>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4"/>
-      <c r="BB20" s="5"/>
-    </row>
-    <row r="21" spans="1:54" ht="14" customHeight="1">
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="5"/>
+    </row>
+    <row r="21" spans="1:57" ht="14" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -2289,12 +2408,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
       <c r="L21" s="4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2321,27 +2440,30 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="4"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="3"/>
       <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="3"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="3"/>
       <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
+      <c r="AU21" s="5"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4"/>
-      <c r="BB21" s="5"/>
-    </row>
-    <row r="22" spans="1:54" ht="14" customHeight="1">
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="5"/>
+    </row>
+    <row r="22" spans="1:57" ht="14" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -2351,12 +2473,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2383,27 +2505,30 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="4"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="3"/>
       <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="3"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="3"/>
       <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
+      <c r="AU22" s="5"/>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
-      <c r="BB22" s="5"/>
-    </row>
-    <row r="23" spans="1:54" ht="14" customHeight="1">
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="5"/>
+    </row>
+    <row r="23" spans="1:57" ht="14" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -2413,12 +2538,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2444,28 +2569,31 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="3"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="3"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="3"/>
       <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
+      <c r="AU23" s="5"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
-      <c r="BB23" s="5"/>
-    </row>
-    <row r="24" spans="1:54" ht="14" customHeight="1">
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="5"/>
+    </row>
+    <row r="24" spans="1:57" ht="14" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -2475,12 +2603,12 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2507,25 +2635,28 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="4"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="3"/>
       <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="3"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="3"/>
       <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
+      <c r="AU24" s="5"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
-      <c r="BB24" s="5"/>
-    </row>
-    <row r="25" spans="1:54" ht="14" customHeight="1">
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="5"/>
+    </row>
+    <row r="25" spans="1:57" ht="14" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -2563,25 +2694,28 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="4"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="3"/>
       <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="3"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="3"/>
       <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
+      <c r="AU25" s="5"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
-      <c r="BB25" s="5"/>
-    </row>
-    <row r="26" spans="1:54" ht="14" customHeight="1">
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="5"/>
+    </row>
+    <row r="26" spans="1:57" ht="14" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -2619,25 +2753,28 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="4"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="3"/>
       <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="3"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="3"/>
       <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
+      <c r="AU26" s="5"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
-      <c r="BB26" s="5"/>
-    </row>
-    <row r="27" spans="1:54" ht="14" customHeight="1">
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="5"/>
+    </row>
+    <row r="27" spans="1:57" ht="14" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -2675,25 +2812,28 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="4"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="3"/>
       <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="3"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="3"/>
       <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
+      <c r="AU27" s="5"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
       <c r="AZ27" s="4"/>
       <c r="BA27" s="4"/>
-      <c r="BB27" s="5"/>
-    </row>
-    <row r="28" spans="1:54" ht="14" customHeight="1">
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="5"/>
+    </row>
+    <row r="28" spans="1:57" ht="14" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -2731,25 +2871,28 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="4"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="3"/>
       <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="3"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="3"/>
       <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
+      <c r="AU28" s="5"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
-      <c r="BB28" s="5"/>
-    </row>
-    <row r="29" spans="1:54" ht="14" customHeight="1">
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="5"/>
+    </row>
+    <row r="29" spans="1:57" ht="14" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -2787,25 +2930,28 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="4"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="3"/>
       <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="3"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="3"/>
       <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
+      <c r="AU29" s="5"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
-      <c r="BB29" s="5"/>
-    </row>
-    <row r="30" spans="1:54" ht="14" customHeight="1">
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="5"/>
+    </row>
+    <row r="30" spans="1:57" ht="14" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -2843,25 +2989,28 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="4"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="3"/>
       <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="3"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="3"/>
       <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
+      <c r="AU30" s="5"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
-      <c r="BB30" s="5"/>
-    </row>
-    <row r="31" spans="1:54" ht="14" customHeight="1">
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="5"/>
+    </row>
+    <row r="31" spans="1:57" ht="14" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -2899,25 +3048,28 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="4"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="3"/>
       <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="3"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="3"/>
       <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
+      <c r="AU31" s="5"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
       <c r="AZ31" s="4"/>
       <c r="BA31" s="4"/>
-      <c r="BB31" s="5"/>
-    </row>
-    <row r="32" spans="1:54" ht="14" customHeight="1">
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="5"/>
+    </row>
+    <row r="32" spans="1:57" ht="14" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -2955,25 +3107,28 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="4"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="3"/>
       <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="3"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="4"/>
       <c r="AQ32" s="4"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="3"/>
       <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
+      <c r="AU32" s="5"/>
       <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
-      <c r="BB32" s="5"/>
-    </row>
-    <row r="33" spans="1:54" ht="14" customHeight="1">
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="5"/>
+    </row>
+    <row r="33" spans="1:57" ht="14" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -3011,25 +3166,28 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="4"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="3"/>
       <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="3"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="3"/>
       <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
+      <c r="AU33" s="5"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
-      <c r="BB33" s="5"/>
-    </row>
-    <row r="34" spans="1:54" ht="14" customHeight="1">
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="5"/>
+    </row>
+    <row r="34" spans="1:57" ht="14" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -3067,25 +3225,28 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="4"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="3"/>
       <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="3"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="3"/>
       <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
+      <c r="AU34" s="5"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4"/>
       <c r="BA34" s="4"/>
-      <c r="BB34" s="5"/>
-    </row>
-    <row r="35" spans="1:54" ht="14" customHeight="1">
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="5"/>
+    </row>
+    <row r="35" spans="1:57" ht="14" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -3123,25 +3284,28 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="4"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="3"/>
       <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="3"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="3"/>
       <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
+      <c r="AU35" s="5"/>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
-      <c r="BB35" s="5"/>
-    </row>
-    <row r="36" spans="1:54" ht="14" customHeight="1">
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="5"/>
+    </row>
+    <row r="36" spans="1:57" ht="14" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -3179,25 +3343,28 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="4"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="3"/>
       <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="3"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="3"/>
       <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
+      <c r="AU36" s="5"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4"/>
       <c r="AZ36" s="4"/>
       <c r="BA36" s="4"/>
-      <c r="BB36" s="5"/>
-    </row>
-    <row r="37" spans="1:54" ht="14" customHeight="1">
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="5"/>
+    </row>
+    <row r="37" spans="1:57" ht="14" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -3235,25 +3402,28 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="4"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="3"/>
       <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="3"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
-      <c r="AR37" s="5"/>
-      <c r="AS37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="3"/>
       <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
+      <c r="AU37" s="5"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4"/>
       <c r="AZ37" s="4"/>
       <c r="BA37" s="4"/>
-      <c r="BB37" s="5"/>
-    </row>
-    <row r="38" spans="1:54" ht="14" customHeight="1">
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="5"/>
+    </row>
+    <row r="38" spans="1:57" ht="14" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -3291,25 +3461,28 @@
       <c r="AI38" s="5"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="4"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="3"/>
       <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="3"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="3"/>
       <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
+      <c r="AU38" s="5"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4"/>
       <c r="AZ38" s="4"/>
       <c r="BA38" s="4"/>
-      <c r="BB38" s="5"/>
-    </row>
-    <row r="39" spans="1:54" ht="14" customHeight="1">
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="5"/>
+    </row>
+    <row r="39" spans="1:57" ht="14" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -3347,29 +3520,32 @@
       <c r="AI39" s="5"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="4"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="3"/>
       <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="3"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="3"/>
       <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
+      <c r="AU39" s="5"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4"/>
       <c r="AZ39" s="4"/>
       <c r="BA39" s="4"/>
-      <c r="BB39" s="5"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ Ｐゴシック,標準"&amp;10Confidential information 機密情報&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;10&amp;K000000&amp;D　&amp;T</oddHeader>
     <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;10&amp;P&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;10Genecom, Inc.</oddFooter>
@@ -3378,44 +3554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E170FDA-B967-5740-9C00-5C2D8ACA30CD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A30A8D-0291-4E45-B75D-3AF5156FE4A2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFB7BEA-F813-344B-87CB-2761E728ABF2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="AG18" activeCellId="1" sqref="AG16 AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.42578125" defaultRowHeight="14" customHeight="1"/>
@@ -3425,9 +3571,9 @@
     <col min="31" max="16384" width="2.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="14" customHeight="1">
+    <row r="1" spans="1:57" ht="14" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3439,7 +3585,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="8"/>
@@ -3458,7 +3604,7 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
       <c r="AB1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -3469,13 +3615,13 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
-      <c r="AL1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="3"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
@@ -3487,11 +3633,14 @@
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
-      <c r="BB1" s="5"/>
-    </row>
-    <row r="2" spans="1:54" ht="14" customHeight="1">
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="5"/>
+    </row>
+    <row r="2" spans="1:57" ht="14" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3503,7 +3652,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="23"/>
       <c r="M2" s="4"/>
@@ -3522,7 +3671,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -3533,13 +3682,13 @@
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP2" s="3"/>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
@@ -3551,11 +3700,14 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
-      <c r="BB2" s="5"/>
-    </row>
-    <row r="3" spans="1:54" ht="14" customHeight="1">
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="5"/>
+    </row>
+    <row r="3" spans="1:57" ht="14" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3567,7 +3719,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="12" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="L3"/>
       <c r="M3" s="13"/>
@@ -3586,7 +3738,7 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -3597,10 +3749,10 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="3"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
@@ -3613,11 +3765,14 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
-      <c r="BB3" s="5"/>
-    </row>
-    <row r="4" spans="1:54" ht="14" customHeight="1">
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="5"/>
+    </row>
+    <row r="4" spans="1:57" ht="14" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3671,13 +3826,16 @@
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
-      <c r="BB4" s="9"/>
-    </row>
-    <row r="5" spans="1:54" ht="14" customHeight="1">
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="9"/>
+    </row>
+    <row r="5" spans="1:57" ht="14" customHeight="1">
       <c r="A5" s="10"/>
-      <c r="BB5" s="11"/>
-    </row>
-    <row r="6" spans="1:54" ht="14" customHeight="1">
+      <c r="BE5" s="11"/>
+    </row>
+    <row r="6" spans="1:57" ht="14" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3731,16 +3889,19 @@
       <c r="AY6" s="13"/>
       <c r="AZ6" s="13"/>
       <c r="BA6" s="13"/>
-      <c r="BB6" s="14"/>
-    </row>
-    <row r="8" spans="1:54" ht="14" customHeight="1">
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="14"/>
+    </row>
+    <row r="8" spans="1:57" ht="14" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -3753,7 +3914,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="16"/>
       <c r="O8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
@@ -3773,37 +3934,40 @@
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
+      <c r="AO8" s="16"/>
       <c r="AP8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="16"/>
-      <c r="AS8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="17"/>
       <c r="AZ8" s="17"/>
       <c r="BA8" s="17"/>
-      <c r="BB8" s="16"/>
-    </row>
-    <row r="9" spans="1:54" ht="14" customHeight="1">
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="16"/>
+    </row>
+    <row r="9" spans="1:57" ht="14" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
@@ -3820,7 +3984,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="19"/>
       <c r="L9" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="19"/>
@@ -3830,27 +3994,27 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="19"/>
       <c r="U9" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V9" s="20"/>
       <c r="W9" s="19"/>
       <c r="X9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
       <c r="AD9" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -3860,73 +4024,74 @@
       <c r="AH9" s="20"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AK9" s="20"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="18"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
+      <c r="AO9" s="19"/>
       <c r="AP9" s="18"/>
       <c r="AQ9" s="20"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="18"/>
       <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
+      <c r="AU9" s="19"/>
       <c r="AV9" s="20"/>
       <c r="AW9" s="20"/>
       <c r="AX9" s="20"/>
       <c r="AY9" s="20"/>
       <c r="AZ9" s="20"/>
       <c r="BA9" s="20"/>
-      <c r="BB9" s="19"/>
-    </row>
-    <row r="10" spans="1:54" ht="14" customHeight="1">
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="19"/>
+    </row>
+    <row r="10" spans="1:57" ht="14" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="4" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="3" t="s">
-        <v>39</v>
+      <c r="O10" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="5"/>
       <c r="U10" s="4" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="X10" s="3"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="3" t="s">
@@ -3935,234 +4100,225 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="AJ10" s="3"/>
       <c r="AK10" s="4"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="4" t="s">
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="3"/>
       <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
+      <c r="AU10" s="5"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
-      <c r="BB10" s="5"/>
-    </row>
-    <row r="11" spans="1:54" ht="14" customHeight="1">
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="5"/>
+    </row>
+    <row r="11" spans="1:57" ht="14" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
       <c r="L11" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="O11" s="3"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="4" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="5"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="3"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="AJ11" s="3"/>
       <c r="AK11" s="4"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="4" t="s">
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="3"/>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
+      <c r="AU11" s="5"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
-      <c r="BB11" s="5"/>
-    </row>
-    <row r="12" spans="1:54" ht="14" customHeight="1">
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="5"/>
+    </row>
+    <row r="12" spans="1:57" ht="14" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
       <c r="L12" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="3" t="s">
-        <v>41</v>
+      <c r="O12" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="4" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="5"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="4"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="4" t="s">
-        <v>0</v>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="3"/>
       <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
+      <c r="AU12" s="5"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
-      <c r="BB12" s="5"/>
-    </row>
-    <row r="13" spans="1:54" ht="14" customHeight="1">
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="5"/>
+    </row>
+    <row r="13" spans="1:57" ht="14" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="V13" s="4"/>
       <c r="W13" s="5"/>
       <c r="X13" s="4"/>
@@ -4171,62 +4327,77 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="3"/>
+      <c r="AD13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="3"/>
+      <c r="AG13" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="4"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="3"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="3"/>
       <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
+      <c r="AU13" s="5"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
-      <c r="BB13" s="5"/>
-    </row>
-    <row r="14" spans="1:54" ht="14" customHeight="1">
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="5"/>
+    </row>
+    <row r="14" spans="1:57" ht="14" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="V14" s="4"/>
       <c r="W14" s="5"/>
       <c r="X14" s="4"/>
@@ -4235,62 +4406,81 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="12"/>
+      <c r="AD14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
-      <c r="AG14" s="3"/>
+      <c r="AG14" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="3"/>
+      <c r="AJ14" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="3"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="3"/>
       <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="AW14" s="4"/>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
-      <c r="BB14" s="5"/>
-    </row>
-    <row r="15" spans="1:54" ht="14" customHeight="1">
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="5"/>
+    </row>
+    <row r="15" spans="1:57" ht="14" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="W15" s="5"/>
       <c r="X15" s="4"/>
@@ -4299,60 +4489,79 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="3"/>
+      <c r="AD15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="3"/>
+      <c r="AG15" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="3"/>
+      <c r="AJ15" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="3"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="3"/>
       <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="AW15" s="4"/>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
-      <c r="BB15" s="5"/>
-    </row>
-    <row r="16" spans="1:54" ht="14" customHeight="1">
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="5"/>
+    </row>
+    <row r="16" spans="1:57" ht="14" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="4" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="W16" s="5"/>
       <c r="X16" s="4"/>
@@ -4361,60 +4570,72 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="3"/>
+      <c r="AD16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="3"/>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="3"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="3"/>
       <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
+      <c r="AU16" s="5"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
-      <c r="BB16" s="5"/>
-    </row>
-    <row r="17" spans="1:54" ht="14" customHeight="1">
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="5"/>
+    </row>
+    <row r="17" spans="1:57" ht="14" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="V17" s="4"/>
       <c r="W17" s="5"/>
       <c r="X17" s="4"/>
@@ -4423,60 +4644,77 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="3"/>
+      <c r="AD17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="3"/>
+      <c r="AG17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AH17" s="4"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="3"/>
+      <c r="AJ17" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="AK17" s="4"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="3"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="3"/>
       <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
+      <c r="AU17" s="5"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
       <c r="AX17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4"/>
-      <c r="BB17" s="5"/>
-    </row>
-    <row r="18" spans="1:54" ht="14" customHeight="1">
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="5"/>
+    </row>
+    <row r="18" spans="1:57" ht="14" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
       <c r="L18" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="4"/>
+      <c r="R18" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="W18" s="5"/>
       <c r="X18" s="4"/>
@@ -4485,7 +4723,9 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="3"/>
+      <c r="AD18" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="3"/>
@@ -4493,28 +4733,31 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="3"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="3"/>
       <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
+      <c r="AU18" s="5"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="4"/>
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
-      <c r="BB18" s="5"/>
-    </row>
-    <row r="19" spans="1:54" ht="14" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="5"/>
+    </row>
+    <row r="19" spans="1:57" ht="14" customHeight="1">
+      <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="3"/>
@@ -4522,14 +4765,10 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
@@ -4555,28 +4794,29 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="4"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="3"/>
       <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="3"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="3"/>
       <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
+      <c r="AU19" s="5"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
-      <c r="BB19" s="5"/>
-    </row>
-    <row r="20" spans="1:54" ht="14" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="5"/>
+    </row>
+    <row r="20" spans="1:57" ht="14" customHeight="1">
+      <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
@@ -4584,14 +4824,10 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
@@ -4617,28 +4853,29 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="4"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="3"/>
       <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="3"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="3"/>
       <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
+      <c r="AU20" s="5"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
       <c r="AX20" s="4"/>
       <c r="AY20" s="4"/>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4"/>
-      <c r="BB20" s="5"/>
-    </row>
-    <row r="21" spans="1:54" ht="14" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="5"/>
+    </row>
+    <row r="21" spans="1:57" ht="14" customHeight="1">
+      <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
@@ -4646,14 +4883,10 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
@@ -4679,28 +4912,29 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="4"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="3"/>
       <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="3"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="3"/>
       <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
+      <c r="AU21" s="5"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4"/>
-      <c r="BB21" s="5"/>
-    </row>
-    <row r="22" spans="1:54" ht="14" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="5"/>
+    </row>
+    <row r="22" spans="1:57" ht="14" customHeight="1">
+      <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
@@ -4708,9 +4942,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
@@ -4739,40 +4971,37 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="4"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="3"/>
       <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="3"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="3"/>
       <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
+      <c r="AU22" s="5"/>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
-      <c r="BB22" s="5"/>
-    </row>
-    <row r="23" spans="1:54" ht="14" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="5"/>
+    </row>
+    <row r="23" spans="1:57" ht="14" customHeight="1">
+      <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
@@ -4801,40 +5030,37 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="21"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="3"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="3"/>
       <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
+      <c r="AU23" s="5"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
-      <c r="BB23" s="5"/>
-    </row>
-    <row r="24" spans="1:54" ht="14" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="5"/>
+    </row>
+    <row r="24" spans="1:57" ht="14" customHeight="1">
+      <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
@@ -4863,25 +5089,28 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="4"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="3"/>
       <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="3"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="3"/>
       <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
+      <c r="AU24" s="5"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
-      <c r="BB24" s="5"/>
-    </row>
-    <row r="25" spans="1:54" ht="14" customHeight="1">
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="5"/>
+    </row>
+    <row r="25" spans="1:57" ht="14" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -4919,25 +5148,28 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="4"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="3"/>
       <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="3"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="3"/>
       <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
+      <c r="AU25" s="5"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
-      <c r="BB25" s="5"/>
-    </row>
-    <row r="26" spans="1:54" ht="14" customHeight="1">
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="5"/>
+    </row>
+    <row r="26" spans="1:57" ht="14" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -4975,24 +5207,27 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="4"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="3"/>
       <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="3"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="3"/>
       <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
+      <c r="AU26" s="5"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
-    </row>
-    <row r="27" spans="1:54" ht="14" customHeight="1">
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+    </row>
+    <row r="27" spans="1:57" ht="14" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -5030,25 +5265,28 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="4"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="3"/>
       <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="3"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="3"/>
       <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
+      <c r="AU27" s="5"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
       <c r="AZ27" s="4"/>
       <c r="BA27" s="4"/>
-      <c r="BB27" s="5"/>
-    </row>
-    <row r="28" spans="1:54" ht="14" customHeight="1">
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="5"/>
+    </row>
+    <row r="28" spans="1:57" ht="14" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -5086,25 +5324,28 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="4"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="3"/>
       <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="3"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="3"/>
       <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
+      <c r="AU28" s="5"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
-      <c r="BB28" s="5"/>
-    </row>
-    <row r="29" spans="1:54" ht="14" customHeight="1">
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="5"/>
+    </row>
+    <row r="29" spans="1:57" ht="14" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -5142,25 +5383,28 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="4"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="3"/>
       <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="3"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="3"/>
       <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
+      <c r="AU29" s="5"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
-      <c r="BB29" s="5"/>
-    </row>
-    <row r="30" spans="1:54" ht="14" customHeight="1">
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="5"/>
+    </row>
+    <row r="30" spans="1:57" ht="14" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -5198,25 +5442,28 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="4"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="3"/>
       <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="3"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="3"/>
       <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
+      <c r="AU30" s="5"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
-      <c r="BB30" s="5"/>
-    </row>
-    <row r="31" spans="1:54" ht="14" customHeight="1">
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="5"/>
+    </row>
+    <row r="31" spans="1:57" ht="14" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -5254,25 +5501,28 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="4"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="3"/>
       <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="3"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="3"/>
       <c r="AT31" s="4"/>
-      <c r="AU31" s="4"/>
+      <c r="AU31" s="5"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
       <c r="AZ31" s="4"/>
       <c r="BA31" s="4"/>
-      <c r="BB31" s="5"/>
-    </row>
-    <row r="32" spans="1:54" ht="14" customHeight="1">
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="5"/>
+    </row>
+    <row r="32" spans="1:57" ht="14" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -5310,25 +5560,28 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="4"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="3"/>
       <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="3"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="4"/>
       <c r="AQ32" s="4"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="3"/>
       <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
+      <c r="AU32" s="5"/>
       <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
-      <c r="BB32" s="5"/>
-    </row>
-    <row r="33" spans="1:54" ht="14" customHeight="1">
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="5"/>
+    </row>
+    <row r="33" spans="1:57" ht="14" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -5366,25 +5619,28 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="4"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="3"/>
       <c r="AN33" s="4"/>
-      <c r="AO33" s="4"/>
-      <c r="AP33" s="3"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="3"/>
       <c r="AT33" s="4"/>
-      <c r="AU33" s="4"/>
+      <c r="AU33" s="5"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
-      <c r="BB33" s="5"/>
-    </row>
-    <row r="34" spans="1:54" ht="14" customHeight="1">
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="5"/>
+    </row>
+    <row r="34" spans="1:57" ht="14" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -5422,25 +5678,28 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="4"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="3"/>
       <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="3"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="3"/>
       <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
+      <c r="AU34" s="5"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4"/>
       <c r="BA34" s="4"/>
-      <c r="BB34" s="5"/>
-    </row>
-    <row r="35" spans="1:54" ht="14" customHeight="1">
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="5"/>
+    </row>
+    <row r="35" spans="1:57" ht="14" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -5478,25 +5737,28 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="4"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="3"/>
       <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="3"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="3"/>
       <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
+      <c r="AU35" s="5"/>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
-      <c r="BB35" s="5"/>
-    </row>
-    <row r="36" spans="1:54" ht="14" customHeight="1">
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="5"/>
+    </row>
+    <row r="36" spans="1:57" ht="14" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -5534,25 +5796,28 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="4"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="3"/>
       <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="3"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="3"/>
       <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
+      <c r="AU36" s="5"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4"/>
       <c r="AZ36" s="4"/>
       <c r="BA36" s="4"/>
-      <c r="BB36" s="5"/>
-    </row>
-    <row r="37" spans="1:54" ht="14" customHeight="1">
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="5"/>
+    </row>
+    <row r="37" spans="1:57" ht="14" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -5590,25 +5855,28 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="4"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="3"/>
       <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="3"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
-      <c r="AR37" s="5"/>
-      <c r="AS37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="3"/>
       <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
+      <c r="AU37" s="5"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4"/>
       <c r="AZ37" s="4"/>
       <c r="BA37" s="4"/>
-      <c r="BB37" s="5"/>
-    </row>
-    <row r="38" spans="1:54" ht="14" customHeight="1">
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="5"/>
+    </row>
+    <row r="38" spans="1:57" ht="14" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -5646,25 +5914,28 @@
       <c r="AI38" s="5"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="4"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="3"/>
       <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="3"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="3"/>
       <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
+      <c r="AU38" s="5"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4"/>
       <c r="AZ38" s="4"/>
       <c r="BA38" s="4"/>
-      <c r="BB38" s="5"/>
-    </row>
-    <row r="39" spans="1:54" ht="14" customHeight="1">
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="5"/>
+    </row>
+    <row r="39" spans="1:57" ht="14" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -5702,29 +5973,32 @@
       <c r="AI39" s="5"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="4"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="3"/>
       <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="3"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="3"/>
       <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
+      <c r="AU39" s="5"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4"/>
       <c r="AZ39" s="4"/>
       <c r="BA39" s="4"/>
-      <c r="BB39" s="5"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ Ｐゴシック,標準"&amp;10Confidential information 機密情報&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;10&amp;K000000&amp;D　&amp;T</oddHeader>
     <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;10&amp;P&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;10Genecom, Inc.</oddFooter>
